--- a/excel/pike.xlsx
+++ b/excel/pike.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yello\Desktop\python\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yello\Desktop\pachong\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EA3A3DA-1D0F-4A34-A713-EE62E829A3C0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09B5EC91-730B-4C40-891C-05604BA20729}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2865" yWindow="4140" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1830" yWindow="3225" windowWidth="26865" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,32 +25,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="303">
   <si>
     <t>评论内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>图片</t>
-  </si>
-  <si>
-    <t>图片1</t>
-  </si>
-  <si>
     <t>评论时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ratesku2</t>
-  </si>
-  <si>
-    <t>用户</t>
-  </si>
-  <si>
-    <t>风格款式介绍：真好看  不用买老北京布鞋了 舒适度：差点摔跤 尺码推荐：主系列每款尺码看脸 鞋底材质：鞋底差点爆裂 鞋面材质：没法说，比2.0pro更难洗。</t>
-  </si>
-  <si>
-    <t>https://img.alicdn.com/bao/uploaded/i2/O1CN01VbvQtc2AWgm0sHx5n_!!0-rate.jpg_40x40.jpg</t>
   </si>
   <si>
     <t>https://img.alicdn.com/bao/uploaded/i4/O1CN01X2vUap2AWgltWH9IH_!!0-rate.jpg_40x40.jpg</t>
@@ -964,12 +946,40 @@
     <t>ratesku</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ratesku2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风格款式介绍：真好看  不用买老北京布鞋了 舒适度：差点摔跤 尺码推荐：主系列每款尺码看脸 鞋底材质：鞋底差点爆裂 鞋面材质：没法说，比2.0pro更难洗。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>颜色分类：黑色/大白（酷黑配色）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://img.alicdn.com/bao/uploaded/i2/O1CN01VbvQtc2AWgm0sHx5n_!!0-rate.jpg_40x40.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -992,6 +1002,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1010,14 +1028,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1298,15 +1319,16 @@
   <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27" customWidth="1"/>
-    <col min="2" max="2" width="16.25" customWidth="1"/>
-    <col min="3" max="3" width="12.625" customWidth="1"/>
+    <col min="1" max="1" width="42.75" customWidth="1"/>
+    <col min="2" max="2" width="31.375" customWidth="1"/>
+    <col min="3" max="3" width="24.125" customWidth="1"/>
     <col min="4" max="4" width="19.375" customWidth="1"/>
+    <col min="5" max="5" width="60.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
@@ -1314,2329 +1336,2333 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C1" t="s">
+        <v>297</v>
+      </c>
+      <c r="D1" t="s">
+        <v>294</v>
+      </c>
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>300</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
       <c r="F1" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="G1" t="s">
-        <v>4</v>
+        <v>298</v>
       </c>
       <c r="H1" t="s">
-        <v>5</v>
+        <v>299</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
+        <v>301</v>
+      </c>
+      <c r="G2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" t="s">
         <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2">
-        <v>5.0599999999999996</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" t="s">
         <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H4" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" t="s">
         <v>22</v>
-      </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G6" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="H6" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E7" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F7" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" t="s">
         <v>32</v>
-      </c>
-      <c r="H7" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F8" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H8" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F9" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G9" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H9" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E10" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F10" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G10" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="H10" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B11" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E11" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F11" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G11" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C12" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E12" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F12" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G12" t="s">
+        <v>47</v>
+      </c>
+      <c r="H12" t="s">
         <v>53</v>
-      </c>
-      <c r="H12" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E13" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F13" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G13" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H13" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B14" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C14" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E14" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F14" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G14" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H14" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E15" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F15" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G15" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H15" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E16" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F16" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G16" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="H16" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B17" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C17" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F17" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G17" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="H17" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E18" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F18" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G18" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="H18" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B19" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C19" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E19" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F19" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G19" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="H19" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B20" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C20" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E20" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F20" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G20" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="H20" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B21" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C21" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E21" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F21" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G21" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H21" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B22" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C22" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E22" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F22" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G22" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="H22" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B23" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C23" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E23" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F23" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G23" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="H23" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B24" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C24" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E24" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="F24" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G24" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="H24" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B25" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C25" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E25" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F25" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G25" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H25" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B26" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C26" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E26" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="F26" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G26" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H26" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B27" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C27" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E27" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F27" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G27" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B28" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C28" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E28" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F28" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G28" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H28" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B29" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C29" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E29" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F29" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G29" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="H29" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B30" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C30" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E30" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F30" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G30" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="H30" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B31" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C31" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E31" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F31" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G31" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B32" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C32" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E32" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F32" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G32" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H32" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B33" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C33" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="E33" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F33" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G33" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H33" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B34" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C34" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E34" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="F34" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G34" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H34" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B35" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C35" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E35" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F35" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G35" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B36" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C36" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="E36" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="F36" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G36" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="H36" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B37" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C37" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E37" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="F37" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G37" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="H37" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B38" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C38" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="E38" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="F38" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G38" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B39" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C39" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="E39" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F39" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G39" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="H39" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B40" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C40" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E40" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F40" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G40" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H40" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B41" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C41" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E41" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F41" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G41" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="H41" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B42" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C42" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E42" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F42" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G42" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="H42" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B43" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C43" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E43" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F43" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G43" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="H43" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B44" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C44" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="E44" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F44" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G44" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="H44" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B45" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C45" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E45" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="F45" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G45" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H45" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B46" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C46" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="E46" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="F46" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G46" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H46" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B47" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C47" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E47" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F47" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G47" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B48" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C48" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E48" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F48" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G48" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B49" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C49" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="E49" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F49" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G49" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H49" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B50" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C50" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E50" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F50" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G50" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H50" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B51" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C51" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E51" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F51" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G51" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="H51" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B52" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="C52" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E52" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F52" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G52" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H52" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="B53" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="C53" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E53" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F53" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G53" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="H53" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B54" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C54" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="E54" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F54" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G54" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="H54" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="B55" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C55" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E55" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="F55" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="G55" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="H55" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B56" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C56" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E56" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F56" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G56" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="H56" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="B57" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C57" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E57" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F57" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G57" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="B58" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C58" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E58" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="F58" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="G58" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="H58" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="B59" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C59" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E59" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F59" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G59" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H59" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="B60" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C60" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E60" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F60" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="G60" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="H60" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="B61" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C61" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E61" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F61" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G61" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="B62" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C62" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E62" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F62" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G62" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H62" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B63" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C63" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E63" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="F63" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G63" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H63" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B64" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C64" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="E64" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F64" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G64" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H64" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="B65" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C65" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E65" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F65" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G65" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H65" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B66" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C66" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E66" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F66" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G66" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H66" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B67" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C67" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E67" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G67" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="H67" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="B68" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C68" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E68" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F68" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="G68" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="H68" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="B69" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C69" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E69" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F69" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G69" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H69" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="B70" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C70" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="E70" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="F70" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G70" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="B71" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C71" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E71" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F71" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G71" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="H71" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="B72" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C72" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E72" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F72" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G72" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H72" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="B73" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="C73" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E73" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="F73" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G73" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="B74" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C74" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E74" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F74" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G74" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="H74" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="B75" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C75" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E75" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F75" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G75" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H75" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B76" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C76" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E76" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F76" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G76" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="B77" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C77" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E77" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F77" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G77" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="H77" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="B78" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C78" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E78" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F78" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G78" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B79" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C79" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="E79" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="F79" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G79" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H79" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B80" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C80" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="E80" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F80" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G80" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H80" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="B81" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C81" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="E81" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="F81" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G81" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="H81" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="B82" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C82" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E82" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F82" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G82" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H82" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="B83" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C83" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E83" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F83" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="G83" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="H83" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B84" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C84" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E84" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F84" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G84" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H84" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="B85" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C85" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E85" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F85" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G85" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H85" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="B86" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C86" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E86" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F86" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G86" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="H86" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="B87" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C87" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E87" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F87" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G87" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H87" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="B88" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C88" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E88" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F88" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G88" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="H88" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="B89" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C89" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E89" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F89" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G89" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H89" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="B90" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C90" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E90" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F90" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G90" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H90" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="B91" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C91" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E91" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F91" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G91" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H91" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="B92" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C92" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E92" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F92" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G92" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="H92" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="B93" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C93" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E93" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F93" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G93" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="H93" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="B94" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C94" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E94" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F94" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="G94" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H94" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="B95" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C95" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E95" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F95" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G95" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="H95" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B96" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C96" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E96" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F96" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G96" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="H96" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="B97" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C97" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E97" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F97" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G97" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="H97" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="B98" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C98" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E98" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F98" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G98" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="H98" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="B99" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="C99" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E99" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F99" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G99" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="H99" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B100" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C100" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E100" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F100" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G100" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="H100" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="B101" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C101" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E101" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F101" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G101" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="H101" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{6CD2086C-E383-4071-9A10-5000DAA127A0}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId2"/>
 </worksheet>
 </file>